--- a/InputFiles/Example7.xlsx
+++ b/InputFiles/Example7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\strucpy\Examples\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EB3A94-AC30-45EC-A16F-DDAAC27B7CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7571D147-888D-4551-9F08-D5CA10611373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="657" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="657" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="members" sheetId="1" r:id="rId1"/>
@@ -181,47 +181,20 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -297,77 +270,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,89 +637,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="17" style="23" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="23" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="12.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="19">
         <v>4</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="19">
         <v>5</v>
       </c>
-      <c r="D2" s="19">
-        <v>500</v>
-      </c>
-      <c r="E2" s="19">
-        <v>500</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="D2" s="20">
+        <v>500</v>
+      </c>
+      <c r="E2" s="20">
+        <v>500</v>
+      </c>
+      <c r="F2" s="21">
         <v>0</v>
       </c>
       <c r="G2" s="21">
         <v>0</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <v>5</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="19">
         <v>6</v>
       </c>
-      <c r="D3" s="19">
-        <v>500</v>
-      </c>
-      <c r="E3" s="19">
+      <c r="D3" s="20">
+        <v>500</v>
+      </c>
+      <c r="E3" s="20">
         <v>500</v>
       </c>
       <c r="F3" s="21">
@@ -777,19 +733,19 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>7</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="19">
         <v>8</v>
       </c>
-      <c r="D4" s="19">
-        <v>500</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="D4" s="20">
+        <v>500</v>
+      </c>
+      <c r="E4" s="20">
         <v>500</v>
       </c>
       <c r="F4" s="21">
@@ -803,19 +759,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>8</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="19">
         <v>9</v>
       </c>
-      <c r="D5" s="19">
-        <v>500</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="D5" s="20">
+        <v>500</v>
+      </c>
+      <c r="E5" s="20">
         <v>500</v>
       </c>
       <c r="F5" s="21">
@@ -829,19 +785,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <v>10</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="19">
         <v>11</v>
       </c>
-      <c r="D6" s="19">
-        <v>500</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="D6" s="20">
+        <v>500</v>
+      </c>
+      <c r="E6" s="20">
         <v>500</v>
       </c>
       <c r="F6" s="21">
@@ -855,19 +811,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <v>11</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="19">
         <v>12</v>
       </c>
-      <c r="D7" s="19">
-        <v>500</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="D7" s="20">
+        <v>500</v>
+      </c>
+      <c r="E7" s="20">
         <v>500</v>
       </c>
       <c r="F7" s="21">
@@ -881,19 +837,19 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>8</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>14</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="19">
         <v>15</v>
       </c>
-      <c r="D8" s="19">
-        <v>500</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="D8" s="20">
+        <v>500</v>
+      </c>
+      <c r="E8" s="20">
         <v>500</v>
       </c>
       <c r="F8" s="21">
@@ -907,19 +863,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="19">
         <v>10</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="19">
         <v>17</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="19">
         <v>18</v>
       </c>
-      <c r="D9" s="19">
-        <v>500</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="D9" s="20">
+        <v>500</v>
+      </c>
+      <c r="E9" s="20">
         <v>500</v>
       </c>
       <c r="F9" s="21">
@@ -933,19 +889,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="19">
         <v>11</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="19">
         <v>1</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="19">
         <v>4</v>
       </c>
-      <c r="D10" s="19">
-        <v>500</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="20">
+        <v>500</v>
+      </c>
+      <c r="E10" s="20">
         <v>500</v>
       </c>
       <c r="F10" s="21">
@@ -959,19 +915,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="19">
         <v>12</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="19">
         <v>2</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="19">
         <v>5</v>
       </c>
-      <c r="D11" s="19">
-        <v>500</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="D11" s="20">
+        <v>500</v>
+      </c>
+      <c r="E11" s="20">
         <v>500</v>
       </c>
       <c r="F11" s="21">
@@ -985,19 +941,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>13</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="19">
         <v>3</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="19">
         <v>6</v>
       </c>
-      <c r="D12" s="19">
-        <v>500</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="20">
+        <v>500</v>
+      </c>
+      <c r="E12" s="20">
         <v>500</v>
       </c>
       <c r="F12" s="21">
@@ -1011,19 +967,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="19">
         <v>14</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="19">
         <v>4</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="19">
         <v>7</v>
       </c>
-      <c r="D13" s="19">
-        <v>500</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="D13" s="20">
+        <v>500</v>
+      </c>
+      <c r="E13" s="20">
         <v>500</v>
       </c>
       <c r="F13" s="21">
@@ -1037,19 +993,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="19">
         <v>15</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="19">
         <v>5</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="19">
         <v>8</v>
       </c>
-      <c r="D14" s="19">
-        <v>500</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="D14" s="20">
+        <v>500</v>
+      </c>
+      <c r="E14" s="20">
         <v>500</v>
       </c>
       <c r="F14" s="21">
@@ -1063,19 +1019,19 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="19">
         <v>16</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="19">
         <v>6</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="19">
         <v>9</v>
       </c>
-      <c r="D15" s="19">
-        <v>500</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="D15" s="20">
+        <v>500</v>
+      </c>
+      <c r="E15" s="20">
         <v>500</v>
       </c>
       <c r="F15" s="21">
@@ -1089,19 +1045,19 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>17</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="19">
         <v>7</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="19">
         <v>10</v>
       </c>
-      <c r="D16" s="19">
-        <v>500</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="D16" s="20">
+        <v>500</v>
+      </c>
+      <c r="E16" s="20">
         <v>500</v>
       </c>
       <c r="F16" s="21">
@@ -1115,19 +1071,19 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="19">
         <v>18</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="19">
         <v>8</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="19">
         <v>11</v>
       </c>
-      <c r="D17" s="19">
-        <v>500</v>
-      </c>
-      <c r="E17" s="19">
+      <c r="D17" s="20">
+        <v>500</v>
+      </c>
+      <c r="E17" s="20">
         <v>500</v>
       </c>
       <c r="F17" s="21">
@@ -1141,19 +1097,19 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="19">
         <v>19</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <v>9</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="19">
         <v>12</v>
       </c>
-      <c r="D18" s="19">
-        <v>500</v>
-      </c>
-      <c r="E18" s="19">
+      <c r="D18" s="20">
+        <v>500</v>
+      </c>
+      <c r="E18" s="20">
         <v>500</v>
       </c>
       <c r="F18" s="21">
@@ -1167,19 +1123,19 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="19">
         <v>21</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="19">
         <v>11</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="19">
         <v>14</v>
       </c>
-      <c r="D19" s="19">
-        <v>500</v>
-      </c>
-      <c r="E19" s="19">
+      <c r="D19" s="20">
+        <v>500</v>
+      </c>
+      <c r="E19" s="20">
         <v>500</v>
       </c>
       <c r="F19" s="21">
@@ -1193,19 +1149,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="19">
         <v>22</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="19">
         <v>12</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="19">
         <v>15</v>
       </c>
-      <c r="D20" s="19">
-        <v>500</v>
-      </c>
-      <c r="E20" s="19">
+      <c r="D20" s="20">
+        <v>500</v>
+      </c>
+      <c r="E20" s="20">
         <v>500</v>
       </c>
       <c r="F20" s="21">
@@ -1219,19 +1175,19 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="19">
         <v>24</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="19">
         <v>14</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="19">
         <v>17</v>
       </c>
-      <c r="D21" s="19">
-        <v>500</v>
-      </c>
-      <c r="E21" s="19">
+      <c r="D21" s="20">
+        <v>500</v>
+      </c>
+      <c r="E21" s="20">
         <v>500</v>
       </c>
       <c r="F21" s="21">
@@ -1245,19 +1201,19 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="19">
         <v>25</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="19">
         <v>15</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="19">
         <v>18</v>
       </c>
-      <c r="D22" s="19">
-        <v>500</v>
-      </c>
-      <c r="E22" s="19">
+      <c r="D22" s="20">
+        <v>500</v>
+      </c>
+      <c r="E22" s="20">
         <v>500</v>
       </c>
       <c r="F22" s="21">
@@ -1271,19 +1227,19 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="19">
         <v>26</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="19">
         <v>22</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="19">
         <v>23</v>
       </c>
-      <c r="D23" s="19">
-        <v>500</v>
-      </c>
-      <c r="E23" s="19">
+      <c r="D23" s="20">
+        <v>500</v>
+      </c>
+      <c r="E23" s="20">
         <v>500</v>
       </c>
       <c r="F23" s="21">
@@ -1297,19 +1253,19 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="19">
         <v>27</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="19">
         <v>23</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="19">
         <v>24</v>
       </c>
-      <c r="D24" s="19">
-        <v>500</v>
-      </c>
-      <c r="E24" s="19">
+      <c r="D24" s="20">
+        <v>500</v>
+      </c>
+      <c r="E24" s="20">
         <v>500</v>
       </c>
       <c r="F24" s="21">
@@ -1323,19 +1279,19 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="19">
         <v>28</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="19">
         <v>25</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="19">
         <v>26</v>
       </c>
-      <c r="D25" s="19">
-        <v>500</v>
-      </c>
-      <c r="E25" s="19">
+      <c r="D25" s="20">
+        <v>500</v>
+      </c>
+      <c r="E25" s="20">
         <v>500</v>
       </c>
       <c r="F25" s="21">
@@ -1349,19 +1305,19 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="19">
         <v>29</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="19">
         <v>26</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="19">
         <v>27</v>
       </c>
-      <c r="D26" s="19">
-        <v>500</v>
-      </c>
-      <c r="E26" s="19">
+      <c r="D26" s="20">
+        <v>500</v>
+      </c>
+      <c r="E26" s="20">
         <v>500</v>
       </c>
       <c r="F26" s="21">
@@ -1375,19 +1331,19 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="19">
         <v>30</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="19">
         <v>28</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="19">
         <v>29</v>
       </c>
-      <c r="D27" s="19">
-        <v>500</v>
-      </c>
-      <c r="E27" s="19">
+      <c r="D27" s="20">
+        <v>500</v>
+      </c>
+      <c r="E27" s="20">
         <v>500</v>
       </c>
       <c r="F27" s="21">
@@ -1401,19 +1357,19 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="19">
         <v>31</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="19">
         <v>29</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="19">
         <v>30</v>
       </c>
-      <c r="D28" s="19">
-        <v>500</v>
-      </c>
-      <c r="E28" s="19">
+      <c r="D28" s="20">
+        <v>500</v>
+      </c>
+      <c r="E28" s="20">
         <v>500</v>
       </c>
       <c r="F28" s="21">
@@ -1427,19 +1383,19 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="19">
         <v>33</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="19">
         <v>32</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="19">
         <v>33</v>
       </c>
-      <c r="D29" s="19">
-        <v>500</v>
-      </c>
-      <c r="E29" s="19">
+      <c r="D29" s="20">
+        <v>500</v>
+      </c>
+      <c r="E29" s="20">
         <v>500</v>
       </c>
       <c r="F29" s="21">
@@ -1453,19 +1409,19 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="19">
         <v>35</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="19">
         <v>35</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="19">
         <v>36</v>
       </c>
-      <c r="D30" s="19">
-        <v>500</v>
-      </c>
-      <c r="E30" s="19">
+      <c r="D30" s="20">
+        <v>500</v>
+      </c>
+      <c r="E30" s="20">
         <v>500</v>
       </c>
       <c r="F30" s="21">
@@ -1479,19 +1435,19 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="19">
         <v>36</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="19">
         <v>19</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="19">
         <v>22</v>
       </c>
-      <c r="D31" s="19">
-        <v>500</v>
-      </c>
-      <c r="E31" s="19">
+      <c r="D31" s="20">
+        <v>500</v>
+      </c>
+      <c r="E31" s="20">
         <v>500</v>
       </c>
       <c r="F31" s="21">
@@ -1505,19 +1461,19 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="19">
         <v>37</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="19">
         <v>20</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="19">
         <v>23</v>
       </c>
-      <c r="D32" s="19">
-        <v>500</v>
-      </c>
-      <c r="E32" s="19">
+      <c r="D32" s="20">
+        <v>500</v>
+      </c>
+      <c r="E32" s="20">
         <v>500</v>
       </c>
       <c r="F32" s="21">
@@ -1531,19 +1487,19 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="19">
         <v>38</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="19">
         <v>21</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="19">
         <v>24</v>
       </c>
-      <c r="D33" s="19">
-        <v>500</v>
-      </c>
-      <c r="E33" s="19">
+      <c r="D33" s="20">
+        <v>500</v>
+      </c>
+      <c r="E33" s="20">
         <v>500</v>
       </c>
       <c r="F33" s="21">
@@ -1557,19 +1513,19 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
+      <c r="A34" s="19">
         <v>39</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="19">
         <v>22</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="19">
         <v>25</v>
       </c>
-      <c r="D34" s="19">
-        <v>500</v>
-      </c>
-      <c r="E34" s="19">
+      <c r="D34" s="20">
+        <v>500</v>
+      </c>
+      <c r="E34" s="20">
         <v>500</v>
       </c>
       <c r="F34" s="21">
@@ -1583,19 +1539,19 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="19">
         <v>40</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="19">
         <v>23</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="19">
         <v>26</v>
       </c>
-      <c r="D35" s="19">
-        <v>500</v>
-      </c>
-      <c r="E35" s="19">
+      <c r="D35" s="20">
+        <v>500</v>
+      </c>
+      <c r="E35" s="20">
         <v>500</v>
       </c>
       <c r="F35" s="21">
@@ -1609,19 +1565,19 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
+      <c r="A36" s="19">
         <v>41</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="19">
         <v>24</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="19">
         <v>27</v>
       </c>
-      <c r="D36" s="19">
-        <v>500</v>
-      </c>
-      <c r="E36" s="19">
+      <c r="D36" s="20">
+        <v>500</v>
+      </c>
+      <c r="E36" s="20">
         <v>500</v>
       </c>
       <c r="F36" s="21">
@@ -1635,19 +1591,19 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
+      <c r="A37" s="19">
         <v>42</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="19">
         <v>25</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="19">
         <v>28</v>
       </c>
-      <c r="D37" s="19">
-        <v>500</v>
-      </c>
-      <c r="E37" s="19">
+      <c r="D37" s="20">
+        <v>500</v>
+      </c>
+      <c r="E37" s="20">
         <v>500</v>
       </c>
       <c r="F37" s="21">
@@ -1661,19 +1617,19 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+      <c r="A38" s="19">
         <v>43</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="19">
         <v>26</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="19">
         <v>29</v>
       </c>
-      <c r="D38" s="19">
-        <v>500</v>
-      </c>
-      <c r="E38" s="19">
+      <c r="D38" s="20">
+        <v>500</v>
+      </c>
+      <c r="E38" s="20">
         <v>500</v>
       </c>
       <c r="F38" s="21">
@@ -1687,19 +1643,19 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="19">
         <v>44</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="19">
         <v>27</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="19">
         <v>30</v>
       </c>
-      <c r="D39" s="19">
-        <v>500</v>
-      </c>
-      <c r="E39" s="19">
+      <c r="D39" s="20">
+        <v>500</v>
+      </c>
+      <c r="E39" s="20">
         <v>500</v>
       </c>
       <c r="F39" s="21">
@@ -1713,19 +1669,19 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+      <c r="A40" s="19">
         <v>46</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="19">
         <v>29</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="19">
         <v>32</v>
       </c>
-      <c r="D40" s="19">
-        <v>500</v>
-      </c>
-      <c r="E40" s="19">
+      <c r="D40" s="20">
+        <v>500</v>
+      </c>
+      <c r="E40" s="20">
         <v>500</v>
       </c>
       <c r="F40" s="21">
@@ -1739,19 +1695,19 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="18">
+      <c r="A41" s="19">
         <v>47</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="19">
         <v>30</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="19">
         <v>33</v>
       </c>
-      <c r="D41" s="19">
-        <v>500</v>
-      </c>
-      <c r="E41" s="19">
+      <c r="D41" s="20">
+        <v>500</v>
+      </c>
+      <c r="E41" s="20">
         <v>500</v>
       </c>
       <c r="F41" s="21">
@@ -1765,19 +1721,19 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="18">
+      <c r="A42" s="19">
         <v>49</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="19">
         <v>32</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="19">
         <v>35</v>
       </c>
-      <c r="D42" s="19">
-        <v>500</v>
-      </c>
-      <c r="E42" s="19">
+      <c r="D42" s="20">
+        <v>500</v>
+      </c>
+      <c r="E42" s="20">
         <v>500</v>
       </c>
       <c r="F42" s="21">
@@ -1791,19 +1747,19 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
+      <c r="A43" s="19">
         <v>50</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="19">
         <v>33</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="19">
         <v>36</v>
       </c>
-      <c r="D43" s="19">
-        <v>500</v>
-      </c>
-      <c r="E43" s="19">
+      <c r="D43" s="20">
+        <v>500</v>
+      </c>
+      <c r="E43" s="20">
         <v>500</v>
       </c>
       <c r="F43" s="21">
@@ -1817,19 +1773,19 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="18">
+      <c r="A44" s="19">
         <v>51</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="19">
         <v>40</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="19">
         <v>41</v>
       </c>
-      <c r="D44" s="19">
-        <v>500</v>
-      </c>
-      <c r="E44" s="19">
+      <c r="D44" s="20">
+        <v>500</v>
+      </c>
+      <c r="E44" s="20">
         <v>500</v>
       </c>
       <c r="F44" s="21">
@@ -1843,19 +1799,19 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
+      <c r="A45" s="19">
         <v>52</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="19">
         <v>41</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="19">
         <v>42</v>
       </c>
-      <c r="D45" s="19">
-        <v>500</v>
-      </c>
-      <c r="E45" s="19">
+      <c r="D45" s="20">
+        <v>500</v>
+      </c>
+      <c r="E45" s="20">
         <v>500</v>
       </c>
       <c r="F45" s="21">
@@ -1869,19 +1825,19 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
+      <c r="A46" s="19">
         <v>53</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="19">
         <v>43</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="19">
         <v>44</v>
       </c>
-      <c r="D46" s="19">
-        <v>500</v>
-      </c>
-      <c r="E46" s="19">
+      <c r="D46" s="20">
+        <v>500</v>
+      </c>
+      <c r="E46" s="20">
         <v>500</v>
       </c>
       <c r="F46" s="21">
@@ -1895,19 +1851,19 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
+      <c r="A47" s="19">
         <v>54</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="19">
         <v>44</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="19">
         <v>45</v>
       </c>
-      <c r="D47" s="19">
-        <v>500</v>
-      </c>
-      <c r="E47" s="19">
+      <c r="D47" s="20">
+        <v>500</v>
+      </c>
+      <c r="E47" s="20">
         <v>500</v>
       </c>
       <c r="F47" s="21">
@@ -1921,19 +1877,19 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
+      <c r="A48" s="19">
         <v>55</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="19">
         <v>46</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="19">
         <v>47</v>
       </c>
-      <c r="D48" s="19">
-        <v>500</v>
-      </c>
-      <c r="E48" s="19">
+      <c r="D48" s="20">
+        <v>500</v>
+      </c>
+      <c r="E48" s="20">
         <v>500</v>
       </c>
       <c r="F48" s="21">
@@ -1947,19 +1903,19 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="18">
+      <c r="A49" s="19">
         <v>56</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="19">
         <v>47</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="19">
         <v>48</v>
       </c>
-      <c r="D49" s="19">
-        <v>500</v>
-      </c>
-      <c r="E49" s="19">
+      <c r="D49" s="20">
+        <v>500</v>
+      </c>
+      <c r="E49" s="20">
         <v>500</v>
       </c>
       <c r="F49" s="21">
@@ -1973,19 +1929,19 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="18">
+      <c r="A50" s="19">
         <v>58</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="19">
         <v>50</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="19">
         <v>51</v>
       </c>
-      <c r="D50" s="19">
-        <v>500</v>
-      </c>
-      <c r="E50" s="19">
+      <c r="D50" s="20">
+        <v>500</v>
+      </c>
+      <c r="E50" s="20">
         <v>500</v>
       </c>
       <c r="F50" s="21">
@@ -1999,19 +1955,19 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
+      <c r="A51" s="19">
         <v>60</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="19">
         <v>53</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="19">
         <v>54</v>
       </c>
-      <c r="D51" s="19">
-        <v>500</v>
-      </c>
-      <c r="E51" s="19">
+      <c r="D51" s="20">
+        <v>500</v>
+      </c>
+      <c r="E51" s="20">
         <v>500</v>
       </c>
       <c r="F51" s="21">
@@ -2025,19 +1981,19 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
+      <c r="A52" s="19">
         <v>61</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="19">
         <v>37</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="19">
         <v>40</v>
       </c>
-      <c r="D52" s="19">
-        <v>500</v>
-      </c>
-      <c r="E52" s="19">
+      <c r="D52" s="20">
+        <v>500</v>
+      </c>
+      <c r="E52" s="20">
         <v>500</v>
       </c>
       <c r="F52" s="21">
@@ -2051,19 +2007,19 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="18">
+      <c r="A53" s="19">
         <v>62</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="19">
         <v>38</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="19">
         <v>41</v>
       </c>
-      <c r="D53" s="19">
-        <v>500</v>
-      </c>
-      <c r="E53" s="19">
+      <c r="D53" s="20">
+        <v>500</v>
+      </c>
+      <c r="E53" s="20">
         <v>500</v>
       </c>
       <c r="F53" s="21">
@@ -2077,19 +2033,19 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+      <c r="A54" s="17">
         <v>63</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="17">
         <v>39</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="17">
         <v>42</v>
       </c>
-      <c r="D54" s="19">
-        <v>500</v>
-      </c>
-      <c r="E54" s="19">
+      <c r="D54" s="20">
+        <v>500</v>
+      </c>
+      <c r="E54" s="20">
         <v>500</v>
       </c>
       <c r="F54" s="21">
@@ -2103,19 +2059,19 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
+      <c r="A55" s="17">
         <v>64</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55" s="17">
         <v>40</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="17">
         <v>43</v>
       </c>
-      <c r="D55" s="19">
-        <v>500</v>
-      </c>
-      <c r="E55" s="19">
+      <c r="D55" s="20">
+        <v>500</v>
+      </c>
+      <c r="E55" s="20">
         <v>500</v>
       </c>
       <c r="F55" s="21">
@@ -2129,19 +2085,19 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
+      <c r="A56" s="17">
         <v>65</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56" s="17">
         <v>41</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="17">
         <v>44</v>
       </c>
-      <c r="D56" s="19">
-        <v>500</v>
-      </c>
-      <c r="E56" s="19">
+      <c r="D56" s="20">
+        <v>500</v>
+      </c>
+      <c r="E56" s="20">
         <v>500</v>
       </c>
       <c r="F56" s="21">
@@ -2155,19 +2111,19 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
+      <c r="A57" s="17">
         <v>66</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57" s="17">
         <v>42</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="17">
         <v>45</v>
       </c>
-      <c r="D57" s="19">
-        <v>500</v>
-      </c>
-      <c r="E57" s="19">
+      <c r="D57" s="20">
+        <v>500</v>
+      </c>
+      <c r="E57" s="20">
         <v>500</v>
       </c>
       <c r="F57" s="21">
@@ -2181,19 +2137,19 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
+      <c r="A58" s="17">
         <v>67</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58" s="17">
         <v>43</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="17">
         <v>46</v>
       </c>
-      <c r="D58" s="19">
-        <v>500</v>
-      </c>
-      <c r="E58" s="19">
+      <c r="D58" s="20">
+        <v>500</v>
+      </c>
+      <c r="E58" s="20">
         <v>500</v>
       </c>
       <c r="F58" s="21">
@@ -2207,19 +2163,19 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="22">
+      <c r="A59" s="17">
         <v>68</v>
       </c>
-      <c r="B59" s="22">
+      <c r="B59" s="17">
         <v>44</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="17">
         <v>47</v>
       </c>
-      <c r="D59" s="19">
-        <v>500</v>
-      </c>
-      <c r="E59" s="19">
+      <c r="D59" s="20">
+        <v>500</v>
+      </c>
+      <c r="E59" s="20">
         <v>500</v>
       </c>
       <c r="F59" s="21">
@@ -2233,19 +2189,19 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
+      <c r="A60" s="17">
         <v>69</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60" s="17">
         <v>45</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="17">
         <v>48</v>
       </c>
-      <c r="D60" s="19">
-        <v>500</v>
-      </c>
-      <c r="E60" s="19">
+      <c r="D60" s="20">
+        <v>500</v>
+      </c>
+      <c r="E60" s="20">
         <v>500</v>
       </c>
       <c r="F60" s="21">
@@ -2259,19 +2215,19 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="22">
+      <c r="A61" s="17">
         <v>71</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B61" s="17">
         <v>47</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61" s="17">
         <v>50</v>
       </c>
-      <c r="D61" s="19">
-        <v>500</v>
-      </c>
-      <c r="E61" s="19">
+      <c r="D61" s="20">
+        <v>500</v>
+      </c>
+      <c r="E61" s="20">
         <v>500</v>
       </c>
       <c r="F61" s="21">
@@ -2285,19 +2241,19 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
+      <c r="A62" s="17">
         <v>72</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62" s="17">
         <v>48</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="17">
         <v>51</v>
       </c>
-      <c r="D62" s="19">
-        <v>500</v>
-      </c>
-      <c r="E62" s="19">
+      <c r="D62" s="20">
+        <v>500</v>
+      </c>
+      <c r="E62" s="20">
         <v>500</v>
       </c>
       <c r="F62" s="21">
@@ -2311,19 +2267,19 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="22">
+      <c r="A63" s="17">
         <v>74</v>
       </c>
-      <c r="B63" s="22">
+      <c r="B63" s="17">
         <v>50</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C63" s="17">
         <v>53</v>
       </c>
-      <c r="D63" s="19">
-        <v>500</v>
-      </c>
-      <c r="E63" s="19">
+      <c r="D63" s="20">
+        <v>500</v>
+      </c>
+      <c r="E63" s="20">
         <v>500</v>
       </c>
       <c r="F63" s="21">
@@ -2337,19 +2293,19 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="22">
+      <c r="A64" s="17">
         <v>75</v>
       </c>
-      <c r="B64" s="22">
+      <c r="B64" s="17">
         <v>51</v>
       </c>
-      <c r="C64" s="22">
+      <c r="C64" s="17">
         <v>54</v>
       </c>
-      <c r="D64" s="19">
-        <v>500</v>
-      </c>
-      <c r="E64" s="19">
+      <c r="D64" s="20">
+        <v>500</v>
+      </c>
+      <c r="E64" s="20">
         <v>500</v>
       </c>
       <c r="F64" s="21">
@@ -2363,22 +2319,22 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
+      <c r="A65" s="17">
         <v>76</v>
       </c>
-      <c r="B65" s="22">
+      <c r="B65" s="17">
         <v>58</v>
       </c>
-      <c r="C65" s="22">
+      <c r="C65" s="17">
         <v>59</v>
       </c>
-      <c r="D65" s="19">
-        <v>500</v>
-      </c>
-      <c r="E65" s="19">
-        <v>500</v>
-      </c>
-      <c r="F65" s="23">
+      <c r="D65" s="20">
+        <v>500</v>
+      </c>
+      <c r="E65" s="20">
+        <v>500</v>
+      </c>
+      <c r="F65" s="20">
         <v>0</v>
       </c>
       <c r="G65" s="21">
@@ -2389,22 +2345,22 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="22">
+      <c r="A66" s="17">
         <v>77</v>
       </c>
-      <c r="B66" s="22">
+      <c r="B66" s="17">
         <v>59</v>
       </c>
-      <c r="C66" s="22">
+      <c r="C66" s="17">
         <v>60</v>
       </c>
-      <c r="D66" s="19">
-        <v>500</v>
-      </c>
-      <c r="E66" s="19">
-        <v>500</v>
-      </c>
-      <c r="F66" s="23">
+      <c r="D66" s="20">
+        <v>500</v>
+      </c>
+      <c r="E66" s="20">
+        <v>500</v>
+      </c>
+      <c r="F66" s="20">
         <v>0</v>
       </c>
       <c r="G66" s="21">
@@ -2415,22 +2371,22 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
+      <c r="A67" s="17">
         <v>78</v>
       </c>
-      <c r="B67" s="22">
+      <c r="B67" s="17">
         <v>61</v>
       </c>
-      <c r="C67" s="22">
+      <c r="C67" s="17">
         <v>62</v>
       </c>
-      <c r="D67" s="19">
-        <v>500</v>
-      </c>
-      <c r="E67" s="19">
-        <v>500</v>
-      </c>
-      <c r="F67" s="23">
+      <c r="D67" s="20">
+        <v>500</v>
+      </c>
+      <c r="E67" s="20">
+        <v>500</v>
+      </c>
+      <c r="F67" s="20">
         <v>0</v>
       </c>
       <c r="G67" s="21">
@@ -2441,22 +2397,22 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="22">
+      <c r="A68" s="17">
         <v>79</v>
       </c>
-      <c r="B68" s="22">
+      <c r="B68" s="17">
         <v>62</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="17">
         <v>63</v>
       </c>
-      <c r="D68" s="19">
-        <v>500</v>
-      </c>
-      <c r="E68" s="19">
-        <v>500</v>
-      </c>
-      <c r="F68" s="23">
+      <c r="D68" s="20">
+        <v>500</v>
+      </c>
+      <c r="E68" s="20">
+        <v>500</v>
+      </c>
+      <c r="F68" s="20">
         <v>0</v>
       </c>
       <c r="G68" s="21">
@@ -2467,22 +2423,22 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="22">
+      <c r="A69" s="17">
         <v>81</v>
       </c>
-      <c r="B69" s="22">
+      <c r="B69" s="17">
         <v>65</v>
       </c>
-      <c r="C69" s="22">
+      <c r="C69" s="17">
         <v>66</v>
       </c>
-      <c r="D69" s="19">
-        <v>500</v>
-      </c>
-      <c r="E69" s="19">
-        <v>500</v>
-      </c>
-      <c r="F69" s="23">
+      <c r="D69" s="20">
+        <v>500</v>
+      </c>
+      <c r="E69" s="20">
+        <v>500</v>
+      </c>
+      <c r="F69" s="20">
         <v>0</v>
       </c>
       <c r="G69" s="21">
@@ -2493,22 +2449,22 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
+      <c r="A70" s="17">
         <v>83</v>
       </c>
-      <c r="B70" s="22">
+      <c r="B70" s="17">
         <v>68</v>
       </c>
-      <c r="C70" s="22">
+      <c r="C70" s="17">
         <v>69</v>
       </c>
-      <c r="D70" s="19">
-        <v>500</v>
-      </c>
-      <c r="E70" s="19">
-        <v>500</v>
-      </c>
-      <c r="F70" s="23">
+      <c r="D70" s="20">
+        <v>500</v>
+      </c>
+      <c r="E70" s="20">
+        <v>500</v>
+      </c>
+      <c r="F70" s="20">
         <v>0</v>
       </c>
       <c r="G70" s="21">
@@ -2519,22 +2475,22 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
+      <c r="A71" s="17">
         <v>85</v>
       </c>
-      <c r="B71" s="22">
+      <c r="B71" s="17">
         <v>71</v>
       </c>
-      <c r="C71" s="22">
+      <c r="C71" s="17">
         <v>72</v>
       </c>
-      <c r="D71" s="19">
-        <v>500</v>
-      </c>
-      <c r="E71" s="19">
-        <v>500</v>
-      </c>
-      <c r="F71" s="23">
+      <c r="D71" s="20">
+        <v>500</v>
+      </c>
+      <c r="E71" s="20">
+        <v>500</v>
+      </c>
+      <c r="F71" s="20">
         <v>0</v>
       </c>
       <c r="G71" s="21">
@@ -2545,22 +2501,22 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
+      <c r="A72" s="17">
         <v>86</v>
       </c>
-      <c r="B72" s="22">
+      <c r="B72" s="17">
         <v>55</v>
       </c>
-      <c r="C72" s="22">
+      <c r="C72" s="17">
         <v>58</v>
       </c>
-      <c r="D72" s="19">
-        <v>500</v>
-      </c>
-      <c r="E72" s="19">
-        <v>500</v>
-      </c>
-      <c r="F72" s="23">
+      <c r="D72" s="20">
+        <v>500</v>
+      </c>
+      <c r="E72" s="20">
+        <v>500</v>
+      </c>
+      <c r="F72" s="20">
         <v>0</v>
       </c>
       <c r="G72" s="21">
@@ -2571,22 +2527,22 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="22">
+      <c r="A73" s="17">
         <v>87</v>
       </c>
-      <c r="B73" s="22">
+      <c r="B73" s="17">
         <v>56</v>
       </c>
-      <c r="C73" s="22">
+      <c r="C73" s="17">
         <v>59</v>
       </c>
-      <c r="D73" s="19">
-        <v>500</v>
-      </c>
-      <c r="E73" s="19">
-        <v>500</v>
-      </c>
-      <c r="F73" s="23">
+      <c r="D73" s="20">
+        <v>500</v>
+      </c>
+      <c r="E73" s="20">
+        <v>500</v>
+      </c>
+      <c r="F73" s="20">
         <v>0</v>
       </c>
       <c r="G73" s="21">
@@ -2597,22 +2553,22 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="22">
+      <c r="A74" s="17">
         <v>88</v>
       </c>
-      <c r="B74" s="22">
+      <c r="B74" s="17">
         <v>57</v>
       </c>
-      <c r="C74" s="22">
+      <c r="C74" s="17">
         <v>60</v>
       </c>
-      <c r="D74" s="19">
-        <v>500</v>
-      </c>
-      <c r="E74" s="19">
-        <v>500</v>
-      </c>
-      <c r="F74" s="23">
+      <c r="D74" s="20">
+        <v>500</v>
+      </c>
+      <c r="E74" s="20">
+        <v>500</v>
+      </c>
+      <c r="F74" s="20">
         <v>0</v>
       </c>
       <c r="G74" s="21">
@@ -2623,22 +2579,22 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="22">
+      <c r="A75" s="17">
         <v>89</v>
       </c>
-      <c r="B75" s="22">
+      <c r="B75" s="17">
         <v>58</v>
       </c>
-      <c r="C75" s="22">
+      <c r="C75" s="17">
         <v>61</v>
       </c>
-      <c r="D75" s="19">
-        <v>500</v>
-      </c>
-      <c r="E75" s="19">
-        <v>500</v>
-      </c>
-      <c r="F75" s="23">
+      <c r="D75" s="20">
+        <v>500</v>
+      </c>
+      <c r="E75" s="20">
+        <v>500</v>
+      </c>
+      <c r="F75" s="20">
         <v>0</v>
       </c>
       <c r="G75" s="21">
@@ -2649,22 +2605,22 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="22">
+      <c r="A76" s="17">
         <v>90</v>
       </c>
-      <c r="B76" s="22">
+      <c r="B76" s="17">
         <v>59</v>
       </c>
-      <c r="C76" s="22">
+      <c r="C76" s="17">
         <v>62</v>
       </c>
-      <c r="D76" s="19">
-        <v>500</v>
-      </c>
-      <c r="E76" s="19">
-        <v>500</v>
-      </c>
-      <c r="F76" s="23">
+      <c r="D76" s="20">
+        <v>500</v>
+      </c>
+      <c r="E76" s="20">
+        <v>500</v>
+      </c>
+      <c r="F76" s="20">
         <v>0</v>
       </c>
       <c r="G76" s="21">
@@ -2675,22 +2631,22 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="22">
+      <c r="A77" s="17">
         <v>91</v>
       </c>
-      <c r="B77" s="22">
+      <c r="B77" s="17">
         <v>60</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="17">
         <v>63</v>
       </c>
-      <c r="D77" s="19">
-        <v>500</v>
-      </c>
-      <c r="E77" s="19">
-        <v>500</v>
-      </c>
-      <c r="F77" s="23">
+      <c r="D77" s="20">
+        <v>500</v>
+      </c>
+      <c r="E77" s="20">
+        <v>500</v>
+      </c>
+      <c r="F77" s="20">
         <v>0</v>
       </c>
       <c r="G77" s="21">
@@ -2701,22 +2657,22 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="22">
+      <c r="A78" s="17">
         <v>93</v>
       </c>
-      <c r="B78" s="22">
+      <c r="B78" s="17">
         <v>62</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C78" s="17">
         <v>65</v>
       </c>
-      <c r="D78" s="19">
-        <v>500</v>
-      </c>
-      <c r="E78" s="19">
-        <v>500</v>
-      </c>
-      <c r="F78" s="23">
+      <c r="D78" s="20">
+        <v>500</v>
+      </c>
+      <c r="E78" s="20">
+        <v>500</v>
+      </c>
+      <c r="F78" s="20">
         <v>0</v>
       </c>
       <c r="G78" s="21">
@@ -2727,22 +2683,22 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="22">
+      <c r="A79" s="17">
         <v>94</v>
       </c>
-      <c r="B79" s="22">
+      <c r="B79" s="17">
         <v>63</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C79" s="17">
         <v>66</v>
       </c>
-      <c r="D79" s="19">
-        <v>500</v>
-      </c>
-      <c r="E79" s="19">
-        <v>500</v>
-      </c>
-      <c r="F79" s="23">
+      <c r="D79" s="20">
+        <v>500</v>
+      </c>
+      <c r="E79" s="20">
+        <v>500</v>
+      </c>
+      <c r="F79" s="20">
         <v>0</v>
       </c>
       <c r="G79" s="21">
@@ -2753,22 +2709,22 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="22">
+      <c r="A80" s="17">
         <v>96</v>
       </c>
-      <c r="B80" s="22">
+      <c r="B80" s="17">
         <v>65</v>
       </c>
-      <c r="C80" s="22">
+      <c r="C80" s="17">
         <v>68</v>
       </c>
-      <c r="D80" s="19">
-        <v>500</v>
-      </c>
-      <c r="E80" s="19">
-        <v>500</v>
-      </c>
-      <c r="F80" s="23">
+      <c r="D80" s="20">
+        <v>500</v>
+      </c>
+      <c r="E80" s="20">
+        <v>500</v>
+      </c>
+      <c r="F80" s="20">
         <v>0</v>
       </c>
       <c r="G80" s="21">
@@ -2779,22 +2735,22 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="22">
+      <c r="A81" s="17">
         <v>97</v>
       </c>
-      <c r="B81" s="22">
+      <c r="B81" s="17">
         <v>66</v>
       </c>
-      <c r="C81" s="22">
+      <c r="C81" s="17">
         <v>69</v>
       </c>
-      <c r="D81" s="19">
-        <v>500</v>
-      </c>
-      <c r="E81" s="19">
-        <v>500</v>
-      </c>
-      <c r="F81" s="23">
+      <c r="D81" s="20">
+        <v>500</v>
+      </c>
+      <c r="E81" s="20">
+        <v>500</v>
+      </c>
+      <c r="F81" s="20">
         <v>0</v>
       </c>
       <c r="G81" s="21">
@@ -2805,22 +2761,22 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="22">
+      <c r="A82" s="17">
         <v>99</v>
       </c>
-      <c r="B82" s="22">
+      <c r="B82" s="17">
         <v>68</v>
       </c>
-      <c r="C82" s="22">
+      <c r="C82" s="17">
         <v>71</v>
       </c>
-      <c r="D82" s="19">
-        <v>500</v>
-      </c>
-      <c r="E82" s="19">
-        <v>500</v>
-      </c>
-      <c r="F82" s="23">
+      <c r="D82" s="20">
+        <v>500</v>
+      </c>
+      <c r="E82" s="20">
+        <v>500</v>
+      </c>
+      <c r="F82" s="20">
         <v>0</v>
       </c>
       <c r="G82" s="21">
@@ -2831,22 +2787,22 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="22">
+      <c r="A83" s="17">
         <v>100</v>
       </c>
-      <c r="B83" s="22">
+      <c r="B83" s="17">
         <v>69</v>
       </c>
-      <c r="C83" s="22">
+      <c r="C83" s="17">
         <v>72</v>
       </c>
-      <c r="D83" s="19">
-        <v>500</v>
-      </c>
-      <c r="E83" s="19">
-        <v>500</v>
-      </c>
-      <c r="F83" s="23">
+      <c r="D83" s="20">
+        <v>500</v>
+      </c>
+      <c r="E83" s="20">
+        <v>500</v>
+      </c>
+      <c r="F83" s="20">
         <v>0</v>
       </c>
       <c r="G83" s="21">
@@ -2857,22 +2813,22 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="22">
+      <c r="A84" s="17">
         <v>101</v>
       </c>
-      <c r="B84" s="22">
+      <c r="B84" s="17">
         <v>4</v>
       </c>
-      <c r="C84" s="22">
+      <c r="C84" s="17">
         <v>22</v>
       </c>
-      <c r="D84" s="19">
-        <v>500</v>
-      </c>
-      <c r="E84" s="19">
-        <v>500</v>
-      </c>
-      <c r="F84" s="23">
+      <c r="D84" s="20">
+        <v>500</v>
+      </c>
+      <c r="E84" s="20">
+        <v>500</v>
+      </c>
+      <c r="F84" s="20">
         <v>0</v>
       </c>
       <c r="G84" s="21">
@@ -2883,22 +2839,22 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="22">
+      <c r="A85" s="17">
         <v>102</v>
       </c>
-      <c r="B85" s="22">
+      <c r="B85" s="17">
         <v>5</v>
       </c>
-      <c r="C85" s="22">
+      <c r="C85" s="17">
         <v>23</v>
       </c>
-      <c r="D85" s="19">
-        <v>500</v>
-      </c>
-      <c r="E85" s="19">
-        <v>500</v>
-      </c>
-      <c r="F85" s="23">
+      <c r="D85" s="20">
+        <v>500</v>
+      </c>
+      <c r="E85" s="20">
+        <v>500</v>
+      </c>
+      <c r="F85" s="20">
         <v>0</v>
       </c>
       <c r="G85" s="21">
@@ -2909,22 +2865,22 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="22">
+      <c r="A86" s="17">
         <v>103</v>
       </c>
-      <c r="B86" s="22">
+      <c r="B86" s="17">
         <v>6</v>
       </c>
-      <c r="C86" s="22">
+      <c r="C86" s="17">
         <v>24</v>
       </c>
-      <c r="D86" s="19">
-        <v>500</v>
-      </c>
-      <c r="E86" s="19">
-        <v>500</v>
-      </c>
-      <c r="F86" s="23">
+      <c r="D86" s="20">
+        <v>500</v>
+      </c>
+      <c r="E86" s="20">
+        <v>500</v>
+      </c>
+      <c r="F86" s="20">
         <v>0</v>
       </c>
       <c r="G86" s="21">
@@ -2935,22 +2891,22 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="22">
+      <c r="A87" s="17">
         <v>104</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B87" s="17">
         <v>7</v>
       </c>
-      <c r="C87" s="22">
+      <c r="C87" s="17">
         <v>25</v>
       </c>
-      <c r="D87" s="19">
-        <v>500</v>
-      </c>
-      <c r="E87" s="19">
-        <v>500</v>
-      </c>
-      <c r="F87" s="23">
+      <c r="D87" s="20">
+        <v>500</v>
+      </c>
+      <c r="E87" s="20">
+        <v>500</v>
+      </c>
+      <c r="F87" s="20">
         <v>0</v>
       </c>
       <c r="G87" s="21">
@@ -2961,22 +2917,22 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="22">
+      <c r="A88" s="17">
         <v>105</v>
       </c>
-      <c r="B88" s="22">
+      <c r="B88" s="17">
         <v>8</v>
       </c>
-      <c r="C88" s="22">
+      <c r="C88" s="17">
         <v>26</v>
       </c>
-      <c r="D88" s="19">
-        <v>500</v>
-      </c>
-      <c r="E88" s="19">
-        <v>500</v>
-      </c>
-      <c r="F88" s="23">
+      <c r="D88" s="20">
+        <v>500</v>
+      </c>
+      <c r="E88" s="20">
+        <v>500</v>
+      </c>
+      <c r="F88" s="20">
         <v>0</v>
       </c>
       <c r="G88" s="21">
@@ -2987,22 +2943,22 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="22">
+      <c r="A89" s="17">
         <v>106</v>
       </c>
-      <c r="B89" s="22">
+      <c r="B89" s="17">
         <v>9</v>
       </c>
-      <c r="C89" s="22">
+      <c r="C89" s="17">
         <v>27</v>
       </c>
-      <c r="D89" s="19">
-        <v>500</v>
-      </c>
-      <c r="E89" s="19">
-        <v>500</v>
-      </c>
-      <c r="F89" s="23">
+      <c r="D89" s="20">
+        <v>500</v>
+      </c>
+      <c r="E89" s="20">
+        <v>500</v>
+      </c>
+      <c r="F89" s="20">
         <v>0</v>
       </c>
       <c r="G89" s="21">
@@ -3013,22 +2969,22 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="22">
+      <c r="A90" s="17">
         <v>107</v>
       </c>
-      <c r="B90" s="22">
+      <c r="B90" s="17">
         <v>10</v>
       </c>
-      <c r="C90" s="22">
+      <c r="C90" s="17">
         <v>28</v>
       </c>
-      <c r="D90" s="19">
-        <v>500</v>
-      </c>
-      <c r="E90" s="19">
-        <v>500</v>
-      </c>
-      <c r="F90" s="23">
+      <c r="D90" s="20">
+        <v>500</v>
+      </c>
+      <c r="E90" s="20">
+        <v>500</v>
+      </c>
+      <c r="F90" s="20">
         <v>0</v>
       </c>
       <c r="G90" s="21">
@@ -3039,22 +2995,22 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="22">
+      <c r="A91" s="17">
         <v>108</v>
       </c>
-      <c r="B91" s="22">
+      <c r="B91" s="17">
         <v>11</v>
       </c>
-      <c r="C91" s="22">
+      <c r="C91" s="17">
         <v>29</v>
       </c>
-      <c r="D91" s="19">
-        <v>500</v>
-      </c>
-      <c r="E91" s="19">
-        <v>500</v>
-      </c>
-      <c r="F91" s="23">
+      <c r="D91" s="20">
+        <v>500</v>
+      </c>
+      <c r="E91" s="20">
+        <v>500</v>
+      </c>
+      <c r="F91" s="20">
         <v>0</v>
       </c>
       <c r="G91" s="21">
@@ -3065,22 +3021,22 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="22">
+      <c r="A92" s="17">
         <v>109</v>
       </c>
-      <c r="B92" s="22">
+      <c r="B92" s="17">
         <v>12</v>
       </c>
-      <c r="C92" s="22">
+      <c r="C92" s="17">
         <v>30</v>
       </c>
-      <c r="D92" s="19">
-        <v>500</v>
-      </c>
-      <c r="E92" s="19">
-        <v>500</v>
-      </c>
-      <c r="F92" s="23">
+      <c r="D92" s="20">
+        <v>500</v>
+      </c>
+      <c r="E92" s="20">
+        <v>500</v>
+      </c>
+      <c r="F92" s="20">
         <v>0</v>
       </c>
       <c r="G92" s="21">
@@ -3091,22 +3047,22 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="22">
+      <c r="A93" s="17">
         <v>111</v>
       </c>
-      <c r="B93" s="22">
+      <c r="B93" s="17">
         <v>14</v>
       </c>
-      <c r="C93" s="22">
+      <c r="C93" s="17">
         <v>32</v>
       </c>
-      <c r="D93" s="19">
-        <v>500</v>
-      </c>
-      <c r="E93" s="19">
-        <v>500</v>
-      </c>
-      <c r="F93" s="23">
+      <c r="D93" s="20">
+        <v>500</v>
+      </c>
+      <c r="E93" s="20">
+        <v>500</v>
+      </c>
+      <c r="F93" s="20">
         <v>0</v>
       </c>
       <c r="G93" s="21">
@@ -3117,22 +3073,22 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="22">
+      <c r="A94" s="17">
         <v>112</v>
       </c>
-      <c r="B94" s="22">
+      <c r="B94" s="17">
         <v>15</v>
       </c>
-      <c r="C94" s="22">
+      <c r="C94" s="17">
         <v>33</v>
       </c>
-      <c r="D94" s="19">
-        <v>500</v>
-      </c>
-      <c r="E94" s="19">
-        <v>500</v>
-      </c>
-      <c r="F94" s="23">
+      <c r="D94" s="20">
+        <v>500</v>
+      </c>
+      <c r="E94" s="20">
+        <v>500</v>
+      </c>
+      <c r="F94" s="20">
         <v>0</v>
       </c>
       <c r="G94" s="21">
@@ -3143,22 +3099,22 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="22">
+      <c r="A95" s="17">
         <v>114</v>
       </c>
-      <c r="B95" s="22">
+      <c r="B95" s="17">
         <v>17</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C95" s="17">
         <v>35</v>
       </c>
-      <c r="D95" s="19">
-        <v>500</v>
-      </c>
-      <c r="E95" s="19">
-        <v>500</v>
-      </c>
-      <c r="F95" s="23">
+      <c r="D95" s="20">
+        <v>500</v>
+      </c>
+      <c r="E95" s="20">
+        <v>500</v>
+      </c>
+      <c r="F95" s="20">
         <v>0</v>
       </c>
       <c r="G95" s="21">
@@ -3169,22 +3125,22 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="22">
+      <c r="A96" s="17">
         <v>115</v>
       </c>
-      <c r="B96" s="22">
+      <c r="B96" s="17">
         <v>18</v>
       </c>
-      <c r="C96" s="22">
+      <c r="C96" s="17">
         <v>36</v>
       </c>
-      <c r="D96" s="19">
-        <v>500</v>
-      </c>
-      <c r="E96" s="19">
-        <v>500</v>
-      </c>
-      <c r="F96" s="23">
+      <c r="D96" s="20">
+        <v>500</v>
+      </c>
+      <c r="E96" s="20">
+        <v>500</v>
+      </c>
+      <c r="F96" s="20">
         <v>0</v>
       </c>
       <c r="G96" s="21">
@@ -3195,22 +3151,22 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="22">
+      <c r="A97" s="17">
         <v>116</v>
       </c>
-      <c r="B97" s="22">
+      <c r="B97" s="17">
         <v>22</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C97" s="17">
         <v>40</v>
       </c>
-      <c r="D97" s="19">
-        <v>500</v>
-      </c>
-      <c r="E97" s="19">
-        <v>500</v>
-      </c>
-      <c r="F97" s="23">
+      <c r="D97" s="20">
+        <v>500</v>
+      </c>
+      <c r="E97" s="20">
+        <v>500</v>
+      </c>
+      <c r="F97" s="20">
         <v>0</v>
       </c>
       <c r="G97" s="21">
@@ -3221,22 +3177,22 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="22">
+      <c r="A98" s="17">
         <v>117</v>
       </c>
-      <c r="B98" s="22">
+      <c r="B98" s="17">
         <v>23</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C98" s="17">
         <v>41</v>
       </c>
-      <c r="D98" s="19">
-        <v>500</v>
-      </c>
-      <c r="E98" s="19">
-        <v>500</v>
-      </c>
-      <c r="F98" s="23">
+      <c r="D98" s="20">
+        <v>500</v>
+      </c>
+      <c r="E98" s="20">
+        <v>500</v>
+      </c>
+      <c r="F98" s="20">
         <v>0</v>
       </c>
       <c r="G98" s="21">
@@ -3247,22 +3203,22 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="22">
+      <c r="A99" s="17">
         <v>118</v>
       </c>
-      <c r="B99" s="22">
+      <c r="B99" s="17">
         <v>24</v>
       </c>
-      <c r="C99" s="22">
+      <c r="C99" s="17">
         <v>42</v>
       </c>
-      <c r="D99" s="19">
-        <v>500</v>
-      </c>
-      <c r="E99" s="19">
-        <v>500</v>
-      </c>
-      <c r="F99" s="23">
+      <c r="D99" s="20">
+        <v>500</v>
+      </c>
+      <c r="E99" s="20">
+        <v>500</v>
+      </c>
+      <c r="F99" s="20">
         <v>0</v>
       </c>
       <c r="G99" s="21">
@@ -3273,22 +3229,22 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="22">
+      <c r="A100" s="17">
         <v>119</v>
       </c>
-      <c r="B100" s="22">
+      <c r="B100" s="17">
         <v>25</v>
       </c>
-      <c r="C100" s="22">
+      <c r="C100" s="17">
         <v>43</v>
       </c>
-      <c r="D100" s="19">
-        <v>500</v>
-      </c>
-      <c r="E100" s="19">
-        <v>500</v>
-      </c>
-      <c r="F100" s="23">
+      <c r="D100" s="20">
+        <v>500</v>
+      </c>
+      <c r="E100" s="20">
+        <v>500</v>
+      </c>
+      <c r="F100" s="20">
         <v>0</v>
       </c>
       <c r="G100" s="21">
@@ -3299,22 +3255,22 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="22">
+      <c r="A101" s="17">
         <v>120</v>
       </c>
-      <c r="B101" s="22">
+      <c r="B101" s="17">
         <v>26</v>
       </c>
-      <c r="C101" s="22">
+      <c r="C101" s="17">
         <v>44</v>
       </c>
-      <c r="D101" s="19">
-        <v>500</v>
-      </c>
-      <c r="E101" s="19">
-        <v>500</v>
-      </c>
-      <c r="F101" s="23">
+      <c r="D101" s="20">
+        <v>500</v>
+      </c>
+      <c r="E101" s="20">
+        <v>500</v>
+      </c>
+      <c r="F101" s="20">
         <v>0</v>
       </c>
       <c r="G101" s="21">
@@ -3325,22 +3281,22 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="22">
+      <c r="A102" s="17">
         <v>121</v>
       </c>
-      <c r="B102" s="22">
+      <c r="B102" s="17">
         <v>27</v>
       </c>
-      <c r="C102" s="22">
+      <c r="C102" s="17">
         <v>45</v>
       </c>
-      <c r="D102" s="19">
-        <v>500</v>
-      </c>
-      <c r="E102" s="19">
-        <v>500</v>
-      </c>
-      <c r="F102" s="23">
+      <c r="D102" s="20">
+        <v>500</v>
+      </c>
+      <c r="E102" s="20">
+        <v>500</v>
+      </c>
+      <c r="F102" s="20">
         <v>0</v>
       </c>
       <c r="G102" s="21">
@@ -3351,22 +3307,22 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="22">
+      <c r="A103" s="17">
         <v>122</v>
       </c>
-      <c r="B103" s="22">
+      <c r="B103" s="17">
         <v>28</v>
       </c>
-      <c r="C103" s="22">
+      <c r="C103" s="17">
         <v>46</v>
       </c>
-      <c r="D103" s="19">
-        <v>500</v>
-      </c>
-      <c r="E103" s="19">
-        <v>500</v>
-      </c>
-      <c r="F103" s="23">
+      <c r="D103" s="20">
+        <v>500</v>
+      </c>
+      <c r="E103" s="20">
+        <v>500</v>
+      </c>
+      <c r="F103" s="20">
         <v>0</v>
       </c>
       <c r="G103" s="21">
@@ -3377,22 +3333,22 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="22">
+      <c r="A104" s="17">
         <v>123</v>
       </c>
-      <c r="B104" s="22">
+      <c r="B104" s="17">
         <v>29</v>
       </c>
-      <c r="C104" s="22">
+      <c r="C104" s="17">
         <v>47</v>
       </c>
-      <c r="D104" s="19">
-        <v>500</v>
-      </c>
-      <c r="E104" s="19">
-        <v>500</v>
-      </c>
-      <c r="F104" s="23">
+      <c r="D104" s="20">
+        <v>500</v>
+      </c>
+      <c r="E104" s="20">
+        <v>500</v>
+      </c>
+      <c r="F104" s="20">
         <v>0</v>
       </c>
       <c r="G104" s="21">
@@ -3403,22 +3359,22 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="22">
+      <c r="A105" s="17">
         <v>124</v>
       </c>
-      <c r="B105" s="22">
+      <c r="B105" s="17">
         <v>30</v>
       </c>
-      <c r="C105" s="22">
+      <c r="C105" s="17">
         <v>48</v>
       </c>
-      <c r="D105" s="19">
-        <v>500</v>
-      </c>
-      <c r="E105" s="19">
-        <v>500</v>
-      </c>
-      <c r="F105" s="23">
+      <c r="D105" s="20">
+        <v>500</v>
+      </c>
+      <c r="E105" s="20">
+        <v>500</v>
+      </c>
+      <c r="F105" s="20">
         <v>0</v>
       </c>
       <c r="G105" s="21">
@@ -3429,22 +3385,22 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="22">
+      <c r="A106" s="17">
         <v>126</v>
       </c>
-      <c r="B106" s="22">
+      <c r="B106" s="17">
         <v>32</v>
       </c>
-      <c r="C106" s="22">
+      <c r="C106" s="17">
         <v>50</v>
       </c>
-      <c r="D106" s="19">
-        <v>500</v>
-      </c>
-      <c r="E106" s="19">
-        <v>500</v>
-      </c>
-      <c r="F106" s="23">
+      <c r="D106" s="20">
+        <v>500</v>
+      </c>
+      <c r="E106" s="20">
+        <v>500</v>
+      </c>
+      <c r="F106" s="20">
         <v>0</v>
       </c>
       <c r="G106" s="21">
@@ -3455,22 +3411,22 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="22">
+      <c r="A107" s="17">
         <v>127</v>
       </c>
-      <c r="B107" s="22">
+      <c r="B107" s="17">
         <v>33</v>
       </c>
-      <c r="C107" s="22">
+      <c r="C107" s="17">
         <v>51</v>
       </c>
-      <c r="D107" s="19">
-        <v>500</v>
-      </c>
-      <c r="E107" s="19">
-        <v>500</v>
-      </c>
-      <c r="F107" s="23">
+      <c r="D107" s="20">
+        <v>500</v>
+      </c>
+      <c r="E107" s="20">
+        <v>500</v>
+      </c>
+      <c r="F107" s="20">
         <v>0</v>
       </c>
       <c r="G107" s="21">
@@ -3481,22 +3437,22 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="22">
+      <c r="A108" s="17">
         <v>129</v>
       </c>
-      <c r="B108" s="22">
+      <c r="B108" s="17">
         <v>35</v>
       </c>
-      <c r="C108" s="22">
+      <c r="C108" s="17">
         <v>53</v>
       </c>
-      <c r="D108" s="19">
-        <v>500</v>
-      </c>
-      <c r="E108" s="19">
-        <v>500</v>
-      </c>
-      <c r="F108" s="23">
+      <c r="D108" s="20">
+        <v>500</v>
+      </c>
+      <c r="E108" s="20">
+        <v>500</v>
+      </c>
+      <c r="F108" s="20">
         <v>0</v>
       </c>
       <c r="G108" s="21">
@@ -3507,22 +3463,22 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="22">
+      <c r="A109" s="17">
         <v>130</v>
       </c>
-      <c r="B109" s="22">
+      <c r="B109" s="17">
         <v>36</v>
       </c>
-      <c r="C109" s="22">
+      <c r="C109" s="17">
         <v>54</v>
       </c>
-      <c r="D109" s="19">
-        <v>500</v>
-      </c>
-      <c r="E109" s="19">
-        <v>500</v>
-      </c>
-      <c r="F109" s="23">
+      <c r="D109" s="20">
+        <v>500</v>
+      </c>
+      <c r="E109" s="20">
+        <v>500</v>
+      </c>
+      <c r="F109" s="20">
         <v>0</v>
       </c>
       <c r="G109" s="21">
@@ -3533,22 +3489,22 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="22">
+      <c r="A110" s="17">
         <v>131</v>
       </c>
-      <c r="B110" s="22">
+      <c r="B110" s="17">
         <v>40</v>
       </c>
-      <c r="C110" s="22">
+      <c r="C110" s="17">
         <v>58</v>
       </c>
-      <c r="D110" s="19">
-        <v>500</v>
-      </c>
-      <c r="E110" s="19">
-        <v>500</v>
-      </c>
-      <c r="F110" s="23">
+      <c r="D110" s="20">
+        <v>500</v>
+      </c>
+      <c r="E110" s="20">
+        <v>500</v>
+      </c>
+      <c r="F110" s="20">
         <v>0</v>
       </c>
       <c r="G110" s="21">
@@ -3559,22 +3515,22 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="22">
+      <c r="A111" s="17">
         <v>132</v>
       </c>
-      <c r="B111" s="22">
+      <c r="B111" s="17">
         <v>41</v>
       </c>
-      <c r="C111" s="22">
+      <c r="C111" s="17">
         <v>59</v>
       </c>
-      <c r="D111" s="19">
-        <v>500</v>
-      </c>
-      <c r="E111" s="19">
-        <v>500</v>
-      </c>
-      <c r="F111" s="23">
+      <c r="D111" s="20">
+        <v>500</v>
+      </c>
+      <c r="E111" s="20">
+        <v>500</v>
+      </c>
+      <c r="F111" s="20">
         <v>0</v>
       </c>
       <c r="G111" s="21">
@@ -3585,22 +3541,22 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="22">
+      <c r="A112" s="17">
         <v>133</v>
       </c>
-      <c r="B112" s="22">
+      <c r="B112" s="17">
         <v>42</v>
       </c>
-      <c r="C112" s="22">
+      <c r="C112" s="17">
         <v>60</v>
       </c>
-      <c r="D112" s="19">
-        <v>500</v>
-      </c>
-      <c r="E112" s="19">
-        <v>500</v>
-      </c>
-      <c r="F112" s="23">
+      <c r="D112" s="20">
+        <v>500</v>
+      </c>
+      <c r="E112" s="20">
+        <v>500</v>
+      </c>
+      <c r="F112" s="20">
         <v>0</v>
       </c>
       <c r="G112" s="21">
@@ -3611,22 +3567,22 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="22">
+      <c r="A113" s="17">
         <v>134</v>
       </c>
-      <c r="B113" s="22">
+      <c r="B113" s="17">
         <v>43</v>
       </c>
-      <c r="C113" s="22">
+      <c r="C113" s="17">
         <v>61</v>
       </c>
-      <c r="D113" s="19">
-        <v>500</v>
-      </c>
-      <c r="E113" s="19">
-        <v>500</v>
-      </c>
-      <c r="F113" s="23">
+      <c r="D113" s="20">
+        <v>500</v>
+      </c>
+      <c r="E113" s="20">
+        <v>500</v>
+      </c>
+      <c r="F113" s="20">
         <v>0</v>
       </c>
       <c r="G113" s="21">
@@ -3637,22 +3593,22 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="22">
+      <c r="A114" s="17">
         <v>135</v>
       </c>
-      <c r="B114" s="22">
+      <c r="B114" s="17">
         <v>44</v>
       </c>
-      <c r="C114" s="22">
+      <c r="C114" s="17">
         <v>62</v>
       </c>
-      <c r="D114" s="19">
-        <v>500</v>
-      </c>
-      <c r="E114" s="19">
-        <v>500</v>
-      </c>
-      <c r="F114" s="23">
+      <c r="D114" s="20">
+        <v>500</v>
+      </c>
+      <c r="E114" s="20">
+        <v>500</v>
+      </c>
+      <c r="F114" s="20">
         <v>0</v>
       </c>
       <c r="G114" s="21">
@@ -3663,22 +3619,22 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="22">
+      <c r="A115" s="17">
         <v>136</v>
       </c>
-      <c r="B115" s="22">
+      <c r="B115" s="17">
         <v>45</v>
       </c>
-      <c r="C115" s="22">
+      <c r="C115" s="17">
         <v>63</v>
       </c>
-      <c r="D115" s="19">
-        <v>500</v>
-      </c>
-      <c r="E115" s="19">
-        <v>500</v>
-      </c>
-      <c r="F115" s="23">
+      <c r="D115" s="20">
+        <v>500</v>
+      </c>
+      <c r="E115" s="20">
+        <v>500</v>
+      </c>
+      <c r="F115" s="20">
         <v>0</v>
       </c>
       <c r="G115" s="21">
@@ -3689,22 +3645,22 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="22">
+      <c r="A116" s="17">
         <v>138</v>
       </c>
-      <c r="B116" s="22">
+      <c r="B116" s="17">
         <v>47</v>
       </c>
-      <c r="C116" s="22">
+      <c r="C116" s="17">
         <v>65</v>
       </c>
-      <c r="D116" s="19">
-        <v>500</v>
-      </c>
-      <c r="E116" s="19">
-        <v>500</v>
-      </c>
-      <c r="F116" s="23">
+      <c r="D116" s="20">
+        <v>500</v>
+      </c>
+      <c r="E116" s="20">
+        <v>500</v>
+      </c>
+      <c r="F116" s="20">
         <v>0</v>
       </c>
       <c r="G116" s="21">
@@ -3715,22 +3671,22 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="22">
+      <c r="A117" s="17">
         <v>139</v>
       </c>
-      <c r="B117" s="22">
+      <c r="B117" s="17">
         <v>48</v>
       </c>
-      <c r="C117" s="22">
+      <c r="C117" s="17">
         <v>66</v>
       </c>
-      <c r="D117" s="19">
-        <v>500</v>
-      </c>
-      <c r="E117" s="19">
-        <v>500</v>
-      </c>
-      <c r="F117" s="23">
+      <c r="D117" s="20">
+        <v>500</v>
+      </c>
+      <c r="E117" s="20">
+        <v>500</v>
+      </c>
+      <c r="F117" s="20">
         <v>0</v>
       </c>
       <c r="G117" s="21">
@@ -3741,22 +3697,22 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="22">
+      <c r="A118" s="17">
         <v>141</v>
       </c>
-      <c r="B118" s="22">
+      <c r="B118" s="17">
         <v>50</v>
       </c>
-      <c r="C118" s="22">
+      <c r="C118" s="17">
         <v>68</v>
       </c>
-      <c r="D118" s="19">
-        <v>500</v>
-      </c>
-      <c r="E118" s="19">
-        <v>500</v>
-      </c>
-      <c r="F118" s="23">
+      <c r="D118" s="20">
+        <v>500</v>
+      </c>
+      <c r="E118" s="20">
+        <v>500</v>
+      </c>
+      <c r="F118" s="20">
         <v>0</v>
       </c>
       <c r="G118" s="21">
@@ -3767,22 +3723,22 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="22">
+      <c r="A119" s="17">
         <v>142</v>
       </c>
-      <c r="B119" s="22">
+      <c r="B119" s="17">
         <v>51</v>
       </c>
-      <c r="C119" s="22">
+      <c r="C119" s="17">
         <v>69</v>
       </c>
-      <c r="D119" s="19">
-        <v>500</v>
-      </c>
-      <c r="E119" s="19">
-        <v>500</v>
-      </c>
-      <c r="F119" s="23">
+      <c r="D119" s="20">
+        <v>500</v>
+      </c>
+      <c r="E119" s="20">
+        <v>500</v>
+      </c>
+      <c r="F119" s="20">
         <v>0</v>
       </c>
       <c r="G119" s="21">
@@ -3793,22 +3749,22 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="22">
+      <c r="A120" s="17">
         <v>144</v>
       </c>
-      <c r="B120" s="22">
+      <c r="B120" s="17">
         <v>53</v>
       </c>
-      <c r="C120" s="22">
+      <c r="C120" s="17">
         <v>71</v>
       </c>
-      <c r="D120" s="19">
-        <v>500</v>
-      </c>
-      <c r="E120" s="19">
-        <v>500</v>
-      </c>
-      <c r="F120" s="23">
+      <c r="D120" s="20">
+        <v>500</v>
+      </c>
+      <c r="E120" s="20">
+        <v>500</v>
+      </c>
+      <c r="F120" s="20">
         <v>0</v>
       </c>
       <c r="G120" s="21">
@@ -3819,22 +3775,22 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="22">
+      <c r="A121" s="17">
         <v>145</v>
       </c>
-      <c r="B121" s="22">
+      <c r="B121" s="17">
         <v>54</v>
       </c>
-      <c r="C121" s="22">
+      <c r="C121" s="17">
         <v>72</v>
       </c>
-      <c r="D121" s="19">
-        <v>500</v>
-      </c>
-      <c r="E121" s="19">
-        <v>500</v>
-      </c>
-      <c r="F121" s="23">
+      <c r="D121" s="20">
+        <v>500</v>
+      </c>
+      <c r="E121" s="20">
+        <v>500</v>
+      </c>
+      <c r="F121" s="20">
         <v>0</v>
       </c>
       <c r="G121" s="21">
@@ -3855,911 +3811,911 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>6</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>9</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>4</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="8">
         <v>12</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>8</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="8">
         <v>12</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>17</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>4</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="8">
         <v>15</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>18</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>8</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="8">
         <v>15</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>19</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>20</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>4</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="8">
         <v>21</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>8</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <v>22</v>
       </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="8">
         <v>23</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>4</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <v>3</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="8">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>8</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <v>3</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="8">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
         <v>6</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="8">
         <v>26</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="8">
         <v>4</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="8">
         <v>6</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="8">
         <v>27</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="8">
         <v>8</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="8">
         <v>6</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="8">
         <v>28</v>
       </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
         <v>9</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="8">
         <v>29</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="8">
         <v>4</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="8">
         <v>9</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <v>30</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="8">
         <v>8</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="8">
         <v>9</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="8">
         <v>32</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="8">
         <v>4</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="8">
         <v>12</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="8">
         <v>33</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="8">
         <v>8</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="8">
         <v>12</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="8">
         <v>35</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="8">
         <v>4</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="8">
         <v>15</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="8">
         <v>36</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="8">
         <v>8</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="8">
         <v>15</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="16">
         <v>37</v>
       </c>
-      <c r="B34" s="11">
-        <v>0</v>
-      </c>
-      <c r="C34" s="11">
-        <v>0</v>
-      </c>
-      <c r="D34" s="11">
+      <c r="B34" s="16">
+        <v>0</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="16">
         <v>38</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="16">
         <v>4</v>
       </c>
-      <c r="C35" s="11">
-        <v>0</v>
-      </c>
-      <c r="D35" s="11">
+      <c r="C35" s="16">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="16">
         <v>39</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="16">
         <v>8</v>
       </c>
-      <c r="C36" s="11">
-        <v>0</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="A37" s="16">
         <v>40</v>
       </c>
-      <c r="B37" s="11">
-        <v>0</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B37" s="16">
+        <v>0</v>
+      </c>
+      <c r="C37" s="16">
         <v>3</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="16">
         <v>41</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="16">
         <v>4</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="16">
         <v>3</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="16">
         <v>42</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="16">
         <v>8</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="16">
         <v>3</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="A40" s="16">
         <v>43</v>
       </c>
-      <c r="B40" s="11">
-        <v>0</v>
-      </c>
-      <c r="C40" s="11">
+      <c r="B40" s="16">
+        <v>0</v>
+      </c>
+      <c r="C40" s="16">
         <v>6</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="A41" s="16">
         <v>44</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="16">
         <v>4</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="16">
         <v>6</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="A42" s="16">
         <v>45</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="16">
         <v>8</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="16">
         <v>6</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="A43" s="16">
         <v>46</v>
       </c>
-      <c r="B43" s="11">
-        <v>0</v>
-      </c>
-      <c r="C43" s="11">
+      <c r="B43" s="16">
+        <v>0</v>
+      </c>
+      <c r="C43" s="16">
         <v>9</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="A44" s="16">
         <v>47</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="16">
         <v>4</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="16">
         <v>9</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+      <c r="A45" s="16">
         <v>48</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="16">
         <v>8</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="16">
         <v>9</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="16">
         <v>50</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="16">
         <v>4</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="16">
         <v>12</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+      <c r="A47" s="16">
         <v>51</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="16">
         <v>8</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="16">
         <v>12</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+      <c r="A48" s="16">
         <v>53</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="16">
         <v>4</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="16">
         <v>15</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+      <c r="A49" s="16">
         <v>54</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="16">
         <v>8</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="16">
         <v>15</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="A50" s="16">
         <v>55</v>
       </c>
-      <c r="B50" s="11">
-        <v>0</v>
-      </c>
-      <c r="C50" s="11">
-        <v>0</v>
-      </c>
-      <c r="D50" s="11">
+      <c r="B50" s="16">
+        <v>0</v>
+      </c>
+      <c r="C50" s="16">
+        <v>0</v>
+      </c>
+      <c r="D50" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+      <c r="A51" s="16">
         <v>56</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="16">
         <v>4</v>
       </c>
-      <c r="C51" s="11">
-        <v>0</v>
-      </c>
-      <c r="D51" s="11">
+      <c r="C51" s="16">
+        <v>0</v>
+      </c>
+      <c r="D51" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+      <c r="A52" s="16">
         <v>57</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="16">
         <v>8</v>
       </c>
-      <c r="C52" s="11">
-        <v>0</v>
-      </c>
-      <c r="D52" s="11">
+      <c r="C52" s="16">
+        <v>0</v>
+      </c>
+      <c r="D52" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
+      <c r="A53" s="16">
         <v>58</v>
       </c>
-      <c r="B53" s="11">
-        <v>0</v>
-      </c>
-      <c r="C53" s="11">
+      <c r="B53" s="16">
+        <v>0</v>
+      </c>
+      <c r="C53" s="16">
         <v>3</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="A54" s="16">
         <v>59</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="16">
         <v>4</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="16">
         <v>3</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
+      <c r="A55" s="16">
         <v>60</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="16">
         <v>8</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="16">
         <v>3</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
+      <c r="A56" s="16">
         <v>61</v>
       </c>
-      <c r="B56" s="11">
-        <v>0</v>
-      </c>
-      <c r="C56" s="11">
+      <c r="B56" s="16">
+        <v>0</v>
+      </c>
+      <c r="C56" s="16">
         <v>6</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
+      <c r="A57" s="16">
         <v>62</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="16">
         <v>4</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="16">
         <v>6</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
+      <c r="A58" s="16">
         <v>63</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="16">
         <v>8</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="16">
         <v>6</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
+      <c r="A59" s="16">
         <v>65</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="16">
         <v>4</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="16">
         <v>9</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
+      <c r="A60" s="16">
         <v>66</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="16">
         <v>8</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="16">
         <v>9</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
+      <c r="A61" s="16">
         <v>68</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="16">
         <v>4</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="16">
         <v>12</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
+      <c r="A62" s="16">
         <v>69</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="16">
         <v>8</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="16">
         <v>12</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
+      <c r="A63" s="16">
         <v>71</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="16">
         <v>4</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="16">
         <v>15</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="11">
+      <c r="A64" s="16">
         <v>72</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="16">
         <v>8</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="16">
         <v>15</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="16">
         <v>12</v>
       </c>
     </row>
@@ -4774,316 +4730,317 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>19</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>20</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>21</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>37</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>38</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>39</v>
       </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>55</v>
       </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>56</v>
       </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>57</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5097,427 +5054,428 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>1.5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>1.5</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>1.5</v>
       </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
         <v>0.9</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>1.5</v>
       </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
         <v>0.9</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>1.5</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
         <v>0.9</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>1.5</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
         <v>0.9</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="A13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="N14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="A14" s="12"/>
+      <c r="N14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="A15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="A16" s="12"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="M17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="A17" s="12"/>
+      <c r="M17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="Q17" s="11"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="A18" s="12"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="S19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
+      <c r="A19" s="12"/>
+      <c r="S19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="T20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="X20" s="2"/>
+      <c r="T20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="X20" s="11"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="S23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="W23" s="2"/>
+      <c r="S23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="W23" s="11"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="X24" s="2"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="X24" s="11"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Y25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
+      <c r="Y25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Z26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AD26" s="2"/>
+      <c r="Z26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AD26" s="11"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Y29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AC29" s="2"/>
+      <c r="Y29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AC29" s="11"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AD30" s="2"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AD30" s="11"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AE31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
+      <c r="AE31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AF32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AJ32" s="2"/>
+      <c r="AF32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AJ32" s="11"/>
     </row>
     <row r="33" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
     </row>
     <row r="34" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
     </row>
     <row r="35" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AE35" s="2"/>
-      <c r="AG35" s="2"/>
-      <c r="AI35" s="2"/>
+      <c r="AE35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AI35" s="11"/>
     </row>
     <row r="36" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AJ36" s="2"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AJ36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5529,79 +5487,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="14.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="17.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="26" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="25"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>0.16</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>1.5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
         <v>5</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
